--- a/Analytics/D1/RefereeFirstCard_d1.xlsx
+++ b/Analytics/D1/RefereeFirstCard_d1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="45">
   <si>
     <t>Referee</t>
   </si>
@@ -52,19 +52,37 @@
     <t>9</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Tobias Stieler</t>
+  </si>
+  <si>
     <t>Florian Exner</t>
   </si>
   <si>
+    <t>Felix Zwayer</t>
+  </si>
+  <si>
     <t>Tobias Reichel</t>
   </si>
   <si>
-    <t>Tobias Stieler</t>
-  </si>
-  <si>
     <t>Florian Badstübner</t>
   </si>
   <si>
-    <t>Felix Zwayer</t>
+    <t>Bastian Dankert</t>
   </si>
   <si>
     <t>Tobias Welz</t>
@@ -76,19 +94,16 @@
     <t>Felix Brych</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>Martin Petersen</t>
+  </si>
+  <si>
+    <t>Christian Dingert</t>
+  </si>
+  <si>
+    <t>Benjamin Brand</t>
+  </si>
+  <si>
+    <t>Robert Hartmann</t>
   </si>
   <si>
     <t>15</t>
@@ -97,46 +112,43 @@
     <t>16</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>Harm Osmers</t>
   </si>
   <si>
-    <t>Bastian Dankert</t>
-  </si>
-  <si>
-    <t>Robert Hartmann</t>
-  </si>
-  <si>
     <t>Sven Jablonski</t>
   </si>
   <si>
-    <t>Christian Dingert</t>
+    <t>Sascha Stegemann</t>
+  </si>
+  <si>
+    <t>Daniel Siebert</t>
+  </si>
+  <si>
+    <t>Sören Storks</t>
   </si>
   <si>
     <t>Frank Willenborg</t>
   </si>
   <si>
-    <t>Sascha Stegemann</t>
-  </si>
-  <si>
-    <t>Daniel Siebert</t>
-  </si>
-  <si>
-    <t>Sören Storks</t>
+    <t>Timo Gerach</t>
   </si>
   <si>
     <t>Daniel Schlager</t>
   </si>
   <si>
-    <t>Benjamin Brand</t>
-  </si>
-  <si>
-    <t>Martin Petersen</t>
-  </si>
-  <si>
-    <t>Timo Gerach</t>
-  </si>
-  <si>
     <t>Max Burda</t>
+  </si>
+  <si>
+    <t>Robin Braun</t>
   </si>
   <si>
     <t>Robert Schröder</t>
@@ -215,7 +227,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -226,7 +238,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -237,10 +249,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,10 +260,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +271,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -270,7 +282,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -281,7 +293,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -292,9 +304,64 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -325,10 +392,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -336,10 +403,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -347,10 +414,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -358,21 +425,21 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="e">
-        <v>#N/A</v>
+      <c r="B6" t="s">
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -380,10 +447,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -391,10 +458,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -402,10 +469,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -413,86 +480,119 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="B16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -523,7 +623,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -534,7 +634,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -545,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -555,11 +655,11 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="e">
-        <v>#N/A</v>
+      <c r="B5" t="s">
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -567,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -578,18 +678,18 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
+      <c r="B8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -600,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -611,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -619,21 +719,21 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -641,10 +741,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -652,10 +752,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -663,10 +763,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -674,10 +774,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -685,12 +785,34 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -721,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -732,7 +854,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -743,10 +865,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -754,10 +876,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -765,10 +887,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -776,10 +898,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -787,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -798,7 +920,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -809,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -817,10 +939,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -828,12 +950,56 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="e">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -864,10 +1030,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -875,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -886,7 +1052,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -897,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -908,9 +1074,42 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -941,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -952,10 +1151,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -963,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -973,10 +1172,32 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="e">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C7" t="n">
         <v>1.0</v>
       </c>
     </row>
